--- a/DAFTAR NAMA SMPN 13 BINTAN.xlsx
+++ b/DAFTAR NAMA SMPN 13 BINTAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327DB600-0599-4F8F-837C-9B75B95E4C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6B3DED-2158-4B34-9E5C-78E3DBF22B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="258">
   <si>
     <t xml:space="preserve">No </t>
   </si>
@@ -799,9 +799,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>KLS</t>
   </si>
   <si>
     <t>NAMA</t>
@@ -853,12 +850,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -895,9 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -942,6 +942,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,2160 +1285,2160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="12" customWidth="1"/>
-    <col min="8" max="8" width="10" style="12" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="12" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="10" style="12" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="12" customWidth="1"/>
-    <col min="16" max="16" width="10" style="12" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="30.140625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="9" style="12" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="12" customWidth="1"/>
-    <col min="21" max="21" width="6.85546875" style="12" customWidth="1"/>
-    <col min="22" max="22" width="28.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="12" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" style="12" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" style="12" customWidth="1"/>
-    <col min="26" max="26" width="30.140625" style="12" customWidth="1"/>
-    <col min="27" max="27" width="9" style="12" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" style="12" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" style="12" customWidth="1"/>
-    <col min="30" max="30" width="30.140625" style="12" customWidth="1"/>
-    <col min="31" max="31" width="9" style="12" customWidth="1"/>
-    <col min="32" max="32" width="8.7109375" style="12" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="6.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10" style="11" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="10" style="11" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="11" customWidth="1"/>
+    <col min="16" max="16" width="10" style="11" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" style="11" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="9" style="11" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="11" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" style="11" customWidth="1"/>
+    <col min="22" max="22" width="28.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="11" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" style="11" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="11" customWidth="1"/>
+    <col min="26" max="26" width="30.140625" style="11" customWidth="1"/>
+    <col min="27" max="27" width="9" style="11" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" style="11" customWidth="1"/>
+    <col min="29" max="29" width="6.85546875" style="11" customWidth="1"/>
+    <col min="30" max="30" width="30.140625" style="11" customWidth="1"/>
+    <col min="31" max="31" width="9" style="11" customWidth="1"/>
+    <col min="32" max="32" width="8.7109375" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:32" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="20">
         <v>71</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="20">
         <v>72</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="20">
         <v>73</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="20">
         <v>74</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="3" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="20">
         <v>81</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="3" t="s">
+      <c r="T1" s="3"/>
+      <c r="U1" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="20">
         <v>82</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="3" t="s">
+      <c r="X1" s="3"/>
+      <c r="Y1" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="20">
         <v>83</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="3" t="s">
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="20">
         <v>84</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="AF1" s="4"/>
+      <c r="AF1" s="3"/>
     </row>
     <row r="2" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="6">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="6">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="6">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="S2" s="6">
+        <v>3</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="W2" s="6">
+        <v>3</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="2"/>
+    </row>
+    <row r="3" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="6">
+        <v>3</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="S3" s="6">
+        <v>3</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="W3" s="6">
+        <v>3</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="2"/>
+    </row>
+    <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="6">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" s="6">
+        <v>3</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="S4" s="6">
+        <v>3</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="W4" s="6">
+        <v>3</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="2"/>
+    </row>
+    <row r="5" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" s="6">
+        <v>3</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="W5" s="6">
+        <v>3</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="2"/>
+    </row>
+    <row r="6" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" s="6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S6" s="6">
+        <v>3</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="W6" s="6">
+        <v>3</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="2"/>
+    </row>
+    <row r="7" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="6">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S7" s="6">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="W7" s="6">
+        <v>3</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="2"/>
+    </row>
+    <row r="8" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="O8" s="6">
+        <v>3</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="S8" s="6">
+        <v>3</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="W8" s="6">
+        <v>3</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="2"/>
+    </row>
+    <row r="9" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="6">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="O9" s="6">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="S9" s="6">
+        <v>3</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="W9" s="6">
+        <v>3</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="2"/>
+    </row>
+    <row r="10" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="6">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O10" s="6">
+        <v>3</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="S10" s="6">
+        <v>3</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="W10" s="6">
+        <v>3</v>
+      </c>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="2"/>
+    </row>
+    <row r="11" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="6">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" s="6">
+        <v>3</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="S11" s="6">
+        <v>3</v>
+      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="W11" s="6">
+        <v>3</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="2"/>
+    </row>
+    <row r="12" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="6">
+        <v>3</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" s="6">
+        <v>3</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="S12" s="6">
+        <v>3</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="W12" s="6">
+        <v>3</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE12" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF12" s="2"/>
+    </row>
+    <row r="13" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="6">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" s="6">
+        <v>3</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="S13" s="6">
+        <v>3</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="W13" s="6">
+        <v>3</v>
+      </c>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF13" s="2"/>
+    </row>
+    <row r="14" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="6">
+        <v>3</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" s="6">
+        <v>3</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="S14" s="6">
+        <v>3</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="W14" s="6">
+        <v>3</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE14" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="2"/>
+    </row>
+    <row r="15" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="6">
+        <v>3</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" s="6">
+        <v>3</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="S15" s="6">
+        <v>3</v>
+      </c>
+      <c r="T15" s="2"/>
+      <c r="U15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="W15" s="6">
+        <v>3</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF15" s="2"/>
+    </row>
+    <row r="16" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="6">
+        <v>3</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" s="6">
+        <v>3</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="S16" s="6">
+        <v>3</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="W16" s="6">
+        <v>3</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="2"/>
+    </row>
+    <row r="17" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" s="7">
+      <c r="G17" s="6">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="6">
+        <v>3</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" s="6">
+        <v>3</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="S17" s="6">
+        <v>3</v>
+      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="W17" s="6">
+        <v>3</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF17" s="2"/>
+    </row>
+    <row r="18" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="S2" s="7">
-        <v>81</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="W2" s="7">
-        <v>82</v>
-      </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE2" s="7">
+      <c r="G18" s="6">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="6">
+        <v>3</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" s="6">
+        <v>3</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="S18" s="6">
+        <v>3</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="W18" s="6">
+        <v>3</v>
+      </c>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="2"/>
+    </row>
+    <row r="19" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="6">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="6">
+        <v>3</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" s="6">
+        <v>3</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="S19" s="6">
+        <v>3</v>
+      </c>
+      <c r="T19" s="2"/>
+      <c r="U19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="W19" s="6">
+        <v>3</v>
+      </c>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF19" s="2"/>
+    </row>
+    <row r="20" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AF2" s="2"/>
-    </row>
-    <row r="3" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>71</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="7">
-        <v>72</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="7">
-        <v>73</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="7">
-        <v>74</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="S3" s="7">
-        <v>81</v>
-      </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="W3" s="7">
-        <v>82</v>
-      </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA3" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF3" s="2"/>
-    </row>
-    <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7">
-        <v>71</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="7">
-        <v>72</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="7">
-        <v>73</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="O4" s="7">
-        <v>74</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="S4" s="7">
-        <v>81</v>
-      </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="W4" s="7">
-        <v>82</v>
-      </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF4" s="2"/>
-    </row>
-    <row r="5" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7">
-        <v>71</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="7">
-        <v>72</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="7">
-        <v>73</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O5" s="7">
-        <v>74</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="S5" s="7">
-        <v>81</v>
-      </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="W5" s="7">
-        <v>82</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF5" s="2"/>
-    </row>
-    <row r="6" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7">
-        <v>71</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="7">
-        <v>72</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" s="7">
-        <v>73</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="O6" s="7">
-        <v>74</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="S6" s="7">
-        <v>81</v>
-      </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="W6" s="7">
-        <v>82</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE6" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF6" s="2"/>
-    </row>
-    <row r="7" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>71</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="7">
-        <v>72</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="7">
-        <v>73</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="O7" s="7">
-        <v>74</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="S7" s="7">
-        <v>81</v>
-      </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="W7" s="7">
-        <v>82</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD7" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF7" s="2"/>
-    </row>
-    <row r="8" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7">
-        <v>71</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="7">
-        <v>72</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="7">
-        <v>73</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="O8" s="7">
-        <v>74</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="S8" s="7">
-        <v>81</v>
-      </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="W8" s="7">
-        <v>82</v>
-      </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z8" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF8" s="2"/>
-    </row>
-    <row r="9" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7">
-        <v>71</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="7">
-        <v>72</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="7">
-        <v>73</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="O9" s="7">
-        <v>74</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="S9" s="7">
-        <v>81</v>
-      </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="W9" s="7">
-        <v>82</v>
-      </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD9" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE9" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF9" s="2"/>
-    </row>
-    <row r="10" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7">
-        <v>71</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="7">
-        <v>72</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="7">
-        <v>73</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="O10" s="7">
-        <v>74</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="S10" s="7">
-        <v>81</v>
-      </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="W10" s="7">
-        <v>82</v>
-      </c>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF10" s="2"/>
-    </row>
-    <row r="11" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7">
-        <v>71</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="7">
-        <v>72</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="7">
-        <v>73</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="O11" s="7">
-        <v>74</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="S11" s="7">
-        <v>81</v>
-      </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="W11" s="7">
-        <v>82</v>
-      </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE11" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF11" s="2"/>
-    </row>
-    <row r="12" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="7">
-        <v>71</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="7">
-        <v>72</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" s="7">
-        <v>73</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="O12" s="7">
-        <v>74</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="S12" s="7">
-        <v>81</v>
-      </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="W12" s="7">
-        <v>82</v>
-      </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z12" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD12" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE12" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF12" s="2"/>
-    </row>
-    <row r="13" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="7">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7">
-        <v>72</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="7">
-        <v>73</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O13" s="7">
-        <v>74</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="S13" s="7">
-        <v>81</v>
-      </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="W13" s="7">
-        <v>82</v>
-      </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA13" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE13" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF13" s="2"/>
-    </row>
-    <row r="14" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="7">
-        <v>72</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" s="7">
-        <v>73</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="O14" s="7">
-        <v>74</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S14" s="7">
-        <v>81</v>
-      </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="W14" s="7">
-        <v>82</v>
-      </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA14" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE14" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF14" s="2"/>
-    </row>
-    <row r="15" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7">
-        <v>71</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="7">
-        <v>72</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="7">
-        <v>73</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="O15" s="7">
-        <v>74</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="S15" s="7">
-        <v>81</v>
-      </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="W15" s="7">
-        <v>82</v>
-      </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z15" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA15" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD15" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE15" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF15" s="2"/>
-    </row>
-    <row r="16" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="7">
-        <v>71</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="7">
-        <v>72</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="7">
-        <v>73</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="O16" s="7">
-        <v>74</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="S16" s="7">
-        <v>81</v>
-      </c>
-      <c r="T16" s="2"/>
-      <c r="U16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="V16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="W16" s="7">
-        <v>82</v>
-      </c>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA16" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE16" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF16" s="2"/>
-    </row>
-    <row r="17" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="7">
-        <v>71</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="7">
-        <v>72</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="7">
-        <v>73</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="O17" s="7">
-        <v>74</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="S17" s="7">
-        <v>81</v>
-      </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="W17" s="7">
-        <v>82</v>
-      </c>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA17" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD17" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE17" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF17" s="2"/>
-    </row>
-    <row r="18" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="7">
-        <v>71</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="7">
-        <v>72</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="7">
-        <v>73</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="O18" s="7">
-        <v>74</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="S18" s="7">
-        <v>81</v>
-      </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="W18" s="7">
-        <v>82</v>
-      </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z18" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA18" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD18" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE18" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF18" s="2"/>
-    </row>
-    <row r="19" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="7">
-        <v>71</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="7">
-        <v>72</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" s="7">
-        <v>73</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O19" s="7">
-        <v>74</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="S19" s="7">
-        <v>81</v>
-      </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="W19" s="7">
-        <v>82</v>
-      </c>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA19" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE19" s="7">
-        <v>84</v>
-      </c>
-      <c r="AF19" s="2"/>
-    </row>
-    <row r="20" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="G20" s="6">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="7">
-        <v>71</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="8" t="s">
+      <c r="J20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="6">
+        <v>3</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="7">
-        <v>72</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="8" t="s">
+      <c r="N20" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="O20" s="6">
+        <v>3</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="7">
-        <v>73</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="8" t="s">
+      <c r="R20" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="S20" s="6">
+        <v>3</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="O20" s="7">
-        <v>74</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="8" t="s">
+      <c r="V20" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="W20" s="6">
+        <v>3</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="R20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="S20" s="7">
-        <v>81</v>
-      </c>
-      <c r="T20" s="2"/>
-      <c r="U20" s="8" t="s">
+      <c r="Z20" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="V20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="W20" s="7">
-        <v>82</v>
-      </c>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA20" s="7">
-        <v>83</v>
-      </c>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD20" s="7" t="s">
+      <c r="AD20" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="AE20" s="7">
-        <v>84</v>
+      <c r="AE20" s="6">
+        <v>3</v>
       </c>
       <c r="AF20" s="2"/>
     </row>
     <row r="21" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="7">
-        <v>71</v>
+      <c r="C21" s="6">
+        <v>3</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="7">
-        <v>72</v>
+      <c r="G21" s="6">
+        <v>3</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="K21" s="7">
-        <v>73</v>
+      <c r="K21" s="6">
+        <v>3</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="O21" s="7">
-        <v>74</v>
+      <c r="O21" s="6">
+        <v>3</v>
       </c>
       <c r="P21" s="2"/>
-      <c r="Q21" s="8" t="s">
+      <c r="Q21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="R21" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="S21" s="7">
-        <v>81</v>
+      <c r="S21" s="6">
+        <v>3</v>
       </c>
       <c r="T21" s="2"/>
-      <c r="U21" s="8" t="s">
+      <c r="U21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V21" s="7" t="s">
+      <c r="V21" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="W21" s="7">
-        <v>82</v>
+      <c r="W21" s="6">
+        <v>3</v>
       </c>
       <c r="X21" s="2"/>
-      <c r="Y21" s="8" t="s">
+      <c r="Y21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Z21" s="7" t="s">
+      <c r="Z21" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AA21" s="7">
-        <v>83</v>
+      <c r="AA21" s="6">
+        <v>3</v>
       </c>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="8" t="s">
+      <c r="AC21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AD21" s="7" t="s">
+      <c r="AD21" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AE21" s="7">
-        <v>84</v>
+      <c r="AE21" s="6">
+        <v>3</v>
       </c>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="7">
-        <v>71</v>
+      <c r="C22" s="6">
+        <v>3</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="7">
-        <v>72</v>
+      <c r="G22" s="6">
+        <v>3</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K22" s="7">
-        <v>73</v>
+      <c r="K22" s="6">
+        <v>3</v>
       </c>
       <c r="L22" s="2"/>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O22" s="7">
-        <v>74</v>
+      <c r="O22" s="6">
+        <v>3</v>
       </c>
       <c r="P22" s="2"/>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R22" s="7" t="s">
+      <c r="R22" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="S22" s="7">
-        <v>81</v>
+      <c r="S22" s="6">
+        <v>3</v>
       </c>
       <c r="T22" s="2"/>
-      <c r="U22" s="8" t="s">
+      <c r="U22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="V22" s="7" t="s">
+      <c r="V22" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="W22" s="7">
-        <v>82</v>
+      <c r="W22" s="6">
+        <v>3</v>
       </c>
       <c r="X22" s="2"/>
-      <c r="Y22" s="8" t="s">
+      <c r="Y22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z22" s="7" t="s">
+      <c r="Z22" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AA22" s="7">
-        <v>83</v>
+      <c r="AA22" s="6">
+        <v>3</v>
       </c>
       <c r="AB22" s="2"/>
-      <c r="AC22" s="8" t="s">
+      <c r="AC22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD22" s="7" t="s">
+      <c r="AD22" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="AE22" s="7">
-        <v>84</v>
+      <c r="AE22" s="6">
+        <v>3</v>
       </c>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="7">
-        <v>71</v>
+      <c r="C23" s="6">
+        <v>3</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="7">
-        <v>72</v>
+      <c r="G23" s="6">
+        <v>3</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K23" s="7">
-        <v>73</v>
+      <c r="K23" s="6">
+        <v>3</v>
       </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="O23" s="7">
-        <v>74</v>
+      <c r="O23" s="6">
+        <v>3</v>
       </c>
       <c r="P23" s="2"/>
-      <c r="Q23" s="8" t="s">
+      <c r="Q23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S23" s="7">
-        <v>81</v>
+      <c r="S23" s="6">
+        <v>3</v>
       </c>
       <c r="T23" s="2"/>
-      <c r="U23" s="8" t="s">
+      <c r="U23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="V23" s="7" t="s">
+      <c r="V23" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="W23" s="7">
-        <v>82</v>
+      <c r="W23" s="6">
+        <v>3</v>
       </c>
       <c r="X23" s="2"/>
-      <c r="Y23" s="8" t="s">
+      <c r="Y23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z23" s="7" t="s">
+      <c r="Z23" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="AA23" s="7">
-        <v>83</v>
+      <c r="AA23" s="6">
+        <v>3</v>
       </c>
       <c r="AB23" s="2"/>
-      <c r="AC23" s="8" t="s">
+      <c r="AC23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AD23" s="7" t="s">
+      <c r="AD23" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AE23" s="7">
-        <v>84</v>
+      <c r="AE23" s="6">
+        <v>3</v>
       </c>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="7">
-        <v>71</v>
+      <c r="C24" s="6">
+        <v>3</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="7">
-        <v>72</v>
+      <c r="G24" s="6">
+        <v>3</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="K24" s="7">
-        <v>73</v>
+      <c r="K24" s="6">
+        <v>3</v>
       </c>
       <c r="L24" s="2"/>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="O24" s="7">
-        <v>74</v>
+      <c r="O24" s="6">
+        <v>3</v>
       </c>
       <c r="P24" s="2"/>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="R24" s="7" t="s">
+      <c r="R24" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="S24" s="7">
-        <v>81</v>
+      <c r="S24" s="6">
+        <v>3</v>
       </c>
       <c r="T24" s="2"/>
-      <c r="U24" s="8" t="s">
+      <c r="U24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="V24" s="7" t="s">
+      <c r="V24" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W24" s="7">
-        <v>82</v>
+      <c r="W24" s="6">
+        <v>3</v>
       </c>
       <c r="X24" s="2"/>
-      <c r="Y24" s="8" t="s">
+      <c r="Y24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Z24" s="7" t="s">
+      <c r="Z24" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AA24" s="7">
-        <v>83</v>
+      <c r="AA24" s="6">
+        <v>3</v>
       </c>
       <c r="AB24" s="2"/>
-      <c r="AC24" s="8" t="s">
+      <c r="AC24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AD24" s="7" t="s">
+      <c r="AD24" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="AE24" s="7">
-        <v>84</v>
+      <c r="AE24" s="6">
+        <v>3</v>
       </c>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="7">
-        <v>71</v>
+      <c r="C25" s="6">
+        <v>3</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="7">
-        <v>72</v>
+      <c r="G25" s="6">
+        <v>3</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="K25" s="7">
-        <v>73</v>
+      <c r="K25" s="6">
+        <v>3</v>
       </c>
       <c r="L25" s="2"/>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="O25" s="7">
-        <v>74</v>
+      <c r="O25" s="6">
+        <v>3</v>
       </c>
       <c r="P25" s="2"/>
-      <c r="Q25" s="8" t="s">
+      <c r="Q25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="R25" s="7" t="s">
+      <c r="R25" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="S25" s="7">
-        <v>81</v>
+      <c r="S25" s="6">
+        <v>3</v>
       </c>
       <c r="T25" s="2"/>
-      <c r="U25" s="8" t="s">
+      <c r="U25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="7" t="s">
+      <c r="V25" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="W25" s="7">
-        <v>82</v>
+      <c r="W25" s="6">
+        <v>3</v>
       </c>
       <c r="X25" s="2"/>
-      <c r="Y25" s="8" t="s">
+      <c r="Y25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Z25" s="7" t="s">
+      <c r="Z25" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AA25" s="7">
-        <v>83</v>
+      <c r="AA25" s="6">
+        <v>3</v>
       </c>
       <c r="AB25" s="2"/>
-      <c r="AC25" s="8" t="s">
+      <c r="AC25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AD25" s="7" t="s">
+      <c r="AD25" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="AE25" s="7">
-        <v>84</v>
+      <c r="AE25" s="6">
+        <v>3</v>
       </c>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="7">
-        <v>71</v>
+      <c r="C26" s="6">
+        <v>3</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="7">
-        <v>72</v>
+      <c r="G26" s="6">
+        <v>3</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="K26" s="7">
-        <v>73</v>
+      <c r="K26" s="6">
+        <v>3</v>
       </c>
       <c r="L26" s="2"/>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="O26" s="7">
-        <v>74</v>
+      <c r="O26" s="6">
+        <v>3</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="Q26" s="8" t="s">
+      <c r="Q26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="R26" s="7" t="s">
+      <c r="R26" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="S26" s="7">
-        <v>81</v>
+      <c r="S26" s="6">
+        <v>3</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="8" t="s">
+      <c r="Y26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Z26" s="7" t="s">
+      <c r="Z26" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="AA26" s="7">
-        <v>83</v>
+      <c r="AA26" s="6">
+        <v>3</v>
       </c>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
@@ -3444,44 +3447,44 @@
       <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="7">
-        <v>71</v>
+      <c r="C27" s="6">
+        <v>3</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="7">
-        <v>72</v>
+      <c r="G27" s="6">
+        <v>3</v>
       </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K27" s="7">
-        <v>73</v>
+      <c r="K27" s="6">
+        <v>3</v>
       </c>
       <c r="L27" s="2"/>
-      <c r="M27" s="8" t="s">
+      <c r="M27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="O27" s="7">
-        <v>74</v>
+      <c r="O27" s="6">
+        <v>3</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -3502,44 +3505,44 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="7">
-        <v>71</v>
+      <c r="C28" s="6">
+        <v>3</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="7">
-        <v>72</v>
+      <c r="G28" s="6">
+        <v>3</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K28" s="7">
-        <v>73</v>
+      <c r="K28" s="6">
+        <v>3</v>
       </c>
       <c r="L28" s="2"/>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="O28" s="7">
-        <v>74</v>
+      <c r="O28" s="6">
+        <v>3</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -3560,44 +3563,44 @@
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="7">
-        <v>71</v>
+      <c r="C29" s="6">
+        <v>3</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="7">
-        <v>72</v>
+      <c r="G29" s="6">
+        <v>3</v>
       </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K29" s="7">
-        <v>73</v>
+      <c r="K29" s="6">
+        <v>3</v>
       </c>
       <c r="L29" s="2"/>
-      <c r="M29" s="8" t="s">
+      <c r="M29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="O29" s="7">
-        <v>74</v>
+      <c r="O29" s="6">
+        <v>3</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -3620,44 +3623,44 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="7">
-        <v>71</v>
+      <c r="C30" s="6">
+        <v>3</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="7">
-        <v>72</v>
+      <c r="G30" s="6">
+        <v>3</v>
       </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="K30" s="7">
-        <v>73</v>
+      <c r="K30" s="6">
+        <v>3</v>
       </c>
       <c r="L30" s="2"/>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="O30" s="7">
-        <v>74</v>
+      <c r="O30" s="6">
+        <v>3</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -3678,34 +3681,34 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="7">
-        <v>71</v>
+      <c r="C31" s="6">
+        <v>3</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="7">
-        <v>72</v>
+      <c r="G31" s="6">
+        <v>3</v>
       </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="K31" s="7">
-        <v>73</v>
+      <c r="K31" s="6">
+        <v>3</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -3730,18 +3733,18 @@
       <c r="AF31" s="1"/>
     </row>
     <row r="32" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="7">
-        <v>72</v>
+      <c r="G32" s="6">
+        <v>3</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3770,38 +3773,38 @@
       <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
     </row>
     <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -3813,104 +3816,104 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3942,7 +3945,7 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3974,7 +3977,7 @@
       <c r="AD38" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.32" right="0.12" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -3989,2517 +3992,2517 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="4.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="G1" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>71</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="F2" s="14">
+      <c r="D2" s="19"/>
+      <c r="F2" s="13">
         <v>41</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <v>72</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>84</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="F3" s="14">
+      <c r="D3" s="19"/>
+      <c r="F3" s="13">
         <v>42</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>72</v>
       </c>
-      <c r="I3" s="20"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>71</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="F4" s="14">
+      <c r="D4" s="19"/>
+      <c r="F4" s="13">
         <v>43</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>81</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>82</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="F5" s="14">
+      <c r="D5" s="19"/>
+      <c r="F5" s="13">
         <v>44</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>73</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>72</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="F6" s="14">
+      <c r="D6" s="19"/>
+      <c r="F6" s="13">
         <v>45</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>73</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>81</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="F7" s="14">
+      <c r="D7" s="19"/>
+      <c r="F7" s="13">
         <v>46</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>82</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>73</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="F8" s="14">
+      <c r="D8" s="19"/>
+      <c r="F8" s="13">
         <v>47</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>72</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>83</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="F9" s="14">
+      <c r="D9" s="19"/>
+      <c r="F9" s="13">
         <v>48</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>74</v>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>84</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="F10" s="14">
+      <c r="D10" s="19"/>
+      <c r="F10" s="13">
         <v>49</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>74</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>71</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="F11" s="14">
+      <c r="D11" s="19"/>
+      <c r="F11" s="13">
         <v>50</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>84</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>81</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="F12" s="14">
+      <c r="D12" s="19"/>
+      <c r="F12" s="13">
         <v>51</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <v>71</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>72</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="F13" s="14">
+      <c r="D13" s="19"/>
+      <c r="F13" s="13">
         <v>52</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>71</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>73</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="F14" s="14">
+      <c r="D14" s="19"/>
+      <c r="F14" s="13">
         <v>53</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <v>72</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>81</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="F15" s="14">
+      <c r="D15" s="19"/>
+      <c r="F15" s="13">
         <v>54</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <v>73</v>
       </c>
-      <c r="I15" s="20"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>83</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="F16" s="14">
+      <c r="D16" s="19"/>
+      <c r="F16" s="13">
         <v>55</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <v>74</v>
       </c>
-      <c r="I16" s="20"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>74</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="F17" s="14">
+      <c r="D17" s="19"/>
+      <c r="F17" s="13">
         <v>56</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>82</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>71</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="F18" s="14">
+      <c r="D18" s="19"/>
+      <c r="F18" s="13">
         <v>57</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <v>82</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>72</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="F19" s="14">
+      <c r="D19" s="19"/>
+      <c r="F19" s="13">
         <v>58</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <v>83</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>81</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="F20" s="14">
+      <c r="D20" s="19"/>
+      <c r="F20" s="13">
         <v>59</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="14">
         <v>82</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>73</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="F21" s="14">
+      <c r="D21" s="19"/>
+      <c r="F21" s="13">
         <v>60</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>83</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>72</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="F22" s="14">
+      <c r="D22" s="19"/>
+      <c r="F22" s="13">
         <v>61</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="14">
         <v>71</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>73</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="F23" s="14">
+      <c r="D23" s="19"/>
+      <c r="F23" s="13">
         <v>62</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <v>83</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>81</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="F24" s="14">
+      <c r="D24" s="19"/>
+      <c r="F24" s="13">
         <v>63</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <v>72</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <v>83</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="F25" s="14">
+      <c r="D25" s="19"/>
+      <c r="F25" s="13">
         <v>64</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <v>81</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>81</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="F26" s="14">
+      <c r="D26" s="19"/>
+      <c r="F26" s="13">
         <v>65</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="14">
         <v>73</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>74</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="F27" s="14">
+      <c r="D27" s="19"/>
+      <c r="F27" s="13">
         <v>66</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <v>81</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="14">
         <v>71</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="F28" s="14">
+      <c r="D28" s="19"/>
+      <c r="F28" s="13">
         <v>67</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <v>74</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <v>72</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="F29" s="14">
+      <c r="D29" s="19"/>
+      <c r="F29" s="13">
         <v>68</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <v>82</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="14">
         <v>74</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="F30" s="14">
+      <c r="D30" s="19"/>
+      <c r="F30" s="13">
         <v>69</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <v>84</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <v>81</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="F31" s="14">
+      <c r="D31" s="19"/>
+      <c r="F31" s="13">
         <v>70</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <v>84</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="14">
         <v>73</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="F32" s="14">
+      <c r="D32" s="19"/>
+      <c r="F32" s="13">
         <v>71</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="14">
         <v>82</v>
       </c>
-      <c r="I32" s="20"/>
+      <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14">
+      <c r="A33" s="13">
         <v>32</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <v>74</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="F33" s="14">
+      <c r="D33" s="19"/>
+      <c r="F33" s="13">
         <v>72</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <v>81</v>
       </c>
-      <c r="I33" s="20"/>
+      <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="14">
         <v>71</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="F34" s="14">
+      <c r="D34" s="19"/>
+      <c r="F34" s="13">
         <v>73</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="14">
         <v>84</v>
       </c>
-      <c r="I34" s="20"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="14">
         <v>72</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="F35" s="14">
+      <c r="D35" s="19"/>
+      <c r="F35" s="13">
         <v>74</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="14">
         <v>81</v>
       </c>
-      <c r="I35" s="20"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="14">
         <v>81</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="F36" s="14">
+      <c r="D36" s="19"/>
+      <c r="F36" s="13">
         <v>75</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="14">
         <v>84</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="14">
         <v>81</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="F37" s="14">
+      <c r="D37" s="19"/>
+      <c r="F37" s="13">
         <v>76</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="14">
         <v>71</v>
       </c>
-      <c r="I37" s="20"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="14">
         <v>82</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="F38" s="14">
+      <c r="D38" s="19"/>
+      <c r="F38" s="13">
         <v>77</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="14">
         <v>73</v>
       </c>
-      <c r="I38" s="20"/>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>38</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="14">
         <v>71</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="F39" s="14">
+      <c r="D39" s="19"/>
+      <c r="F39" s="13">
         <v>78</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="14">
         <v>72</v>
       </c>
-      <c r="I39" s="20"/>
+      <c r="I39" s="19"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>39</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="14">
         <v>74</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="F40" s="14">
+      <c r="D40" s="19"/>
+      <c r="F40" s="13">
         <v>79</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="14">
         <v>82</v>
       </c>
-      <c r="I40" s="20"/>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>40</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="14">
         <v>71</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="F41" s="14">
+      <c r="D41" s="19"/>
+      <c r="F41" s="13">
         <v>80</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="14">
         <v>74</v>
       </c>
-      <c r="I41" s="20"/>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <v>81</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="14">
         <v>83</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="F42" s="14">
+      <c r="D42" s="19"/>
+      <c r="F42" s="13">
         <v>121</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="14">
         <v>72</v>
       </c>
-      <c r="I42" s="20"/>
+      <c r="I42" s="19"/>
     </row>
     <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14">
+      <c r="A43" s="13">
         <v>82</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="14">
         <v>84</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="F43" s="14">
+      <c r="D43" s="19"/>
+      <c r="F43" s="13">
         <v>122</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="14">
         <v>73</v>
       </c>
-      <c r="I43" s="20"/>
+      <c r="I43" s="19"/>
     </row>
     <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <v>83</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="14">
         <v>72</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="F44" s="14">
+      <c r="D44" s="19"/>
+      <c r="F44" s="13">
         <v>123</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="14">
         <v>81</v>
       </c>
-      <c r="I44" s="20"/>
+      <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14">
+      <c r="A45" s="13">
         <v>84</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="14">
         <v>73</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="F45" s="14">
+      <c r="D45" s="19"/>
+      <c r="F45" s="13">
         <v>124</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="14">
         <v>83</v>
       </c>
-      <c r="I45" s="20"/>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14">
+      <c r="A46" s="13">
         <v>85</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="14">
         <v>72</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="F46" s="14">
+      <c r="D46" s="19"/>
+      <c r="F46" s="13">
         <v>125</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="14">
         <v>84</v>
       </c>
-      <c r="I46" s="20"/>
+      <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="14">
+      <c r="A47" s="13">
         <v>86</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="14">
         <v>73</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="F47" s="14">
+      <c r="D47" s="19"/>
+      <c r="F47" s="13">
         <v>126</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="14">
         <v>73</v>
       </c>
-      <c r="I47" s="20"/>
+      <c r="I47" s="19"/>
     </row>
     <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14">
+      <c r="A48" s="13">
         <v>87</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="14">
         <v>81</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="F48" s="14">
+      <c r="D48" s="19"/>
+      <c r="F48" s="13">
         <v>127</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="14">
         <v>82</v>
       </c>
-      <c r="I48" s="20"/>
+      <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14">
+      <c r="A49" s="13">
         <v>88</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="15">
+      <c r="B49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="14">
         <v>71</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="F49" s="14">
+      <c r="D49" s="19"/>
+      <c r="F49" s="13">
         <v>128</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="14">
         <v>84</v>
       </c>
-      <c r="I49" s="20"/>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14">
+      <c r="A50" s="13">
         <v>89</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="14">
         <v>83</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="F50" s="14">
+      <c r="D50" s="19"/>
+      <c r="F50" s="13">
         <v>129</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="14">
         <v>74</v>
       </c>
-      <c r="I50" s="20"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14">
+      <c r="A51" s="13">
         <v>90</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="14">
         <v>74</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="F51" s="14">
+      <c r="D51" s="19"/>
+      <c r="F51" s="13">
         <v>130</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="14">
         <v>82</v>
       </c>
-      <c r="I51" s="20"/>
+      <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="14">
+      <c r="A52" s="13">
         <v>91</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="14">
         <v>84</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="F52" s="14">
+      <c r="D52" s="19"/>
+      <c r="F52" s="13">
         <v>131</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="14">
         <v>72</v>
       </c>
-      <c r="I52" s="20"/>
+      <c r="I52" s="19"/>
     </row>
     <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="14">
+      <c r="A53" s="13">
         <v>92</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="14">
         <v>71</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="F53" s="14">
+      <c r="D53" s="19"/>
+      <c r="F53" s="13">
         <v>132</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="14">
         <v>84</v>
       </c>
-      <c r="I53" s="20"/>
+      <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="14">
+      <c r="A54" s="13">
         <v>93</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="14">
         <v>72</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="F54" s="14">
+      <c r="D54" s="19"/>
+      <c r="F54" s="13">
         <v>133</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="14">
         <v>71</v>
       </c>
-      <c r="I54" s="20"/>
+      <c r="I54" s="19"/>
     </row>
     <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14">
+      <c r="A55" s="13">
         <v>94</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="14">
         <v>72</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="F55" s="14">
+      <c r="D55" s="19"/>
+      <c r="F55" s="13">
         <v>134</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="14">
         <v>74</v>
       </c>
-      <c r="I55" s="20"/>
+      <c r="I55" s="19"/>
     </row>
     <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="14">
+      <c r="A56" s="13">
         <v>95</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="14">
         <v>71</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="F56" s="14">
+      <c r="D56" s="19"/>
+      <c r="F56" s="13">
         <v>135</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="14">
         <v>73</v>
       </c>
-      <c r="I56" s="20"/>
+      <c r="I56" s="19"/>
     </row>
     <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14">
+      <c r="A57" s="13">
         <v>96</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="14">
         <v>84</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="F57" s="14">
+      <c r="D57" s="19"/>
+      <c r="F57" s="13">
         <v>136</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="14">
         <v>74</v>
       </c>
-      <c r="I57" s="20"/>
+      <c r="I57" s="19"/>
     </row>
     <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14">
+      <c r="A58" s="13">
         <v>97</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="14">
         <v>84</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="F58" s="14">
+      <c r="D58" s="19"/>
+      <c r="F58" s="13">
         <v>137</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="G58" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="14">
         <v>71</v>
       </c>
-      <c r="I58" s="20"/>
+      <c r="I58" s="19"/>
     </row>
     <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="14">
+      <c r="A59" s="13">
         <v>98</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="14">
         <v>82</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="F59" s="14">
+      <c r="D59" s="19"/>
+      <c r="F59" s="13">
         <v>138</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="G59" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="14">
         <v>71</v>
       </c>
-      <c r="I59" s="20"/>
+      <c r="I59" s="19"/>
     </row>
     <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="14">
+      <c r="A60" s="13">
         <v>99</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="14">
         <v>83</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="F60" s="14">
+      <c r="D60" s="19"/>
+      <c r="F60" s="13">
         <v>139</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="G60" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="14">
         <v>83</v>
       </c>
-      <c r="I60" s="20"/>
+      <c r="I60" s="19"/>
     </row>
     <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="14">
+      <c r="A61" s="13">
         <v>100</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="14">
         <v>83</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="F61" s="14">
+      <c r="D61" s="19"/>
+      <c r="F61" s="13">
         <v>140</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="G61" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="14">
         <v>84</v>
       </c>
-      <c r="I61" s="20"/>
+      <c r="I61" s="19"/>
     </row>
     <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14">
+      <c r="A62" s="13">
         <v>101</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="14">
         <v>73</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="F62" s="14">
+      <c r="D62" s="19"/>
+      <c r="F62" s="13">
         <v>141</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="14">
         <v>82</v>
       </c>
-      <c r="I62" s="20"/>
+      <c r="I62" s="19"/>
     </row>
     <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="14">
+      <c r="A63" s="13">
         <v>102</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="14">
         <v>74</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="F63" s="14">
+      <c r="D63" s="19"/>
+      <c r="F63" s="13">
         <v>142</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H63" s="14">
         <v>74</v>
       </c>
-      <c r="I63" s="20"/>
+      <c r="I63" s="19"/>
     </row>
     <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="14">
+      <c r="A64" s="13">
         <v>103</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="14">
         <v>73</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="F64" s="14">
+      <c r="D64" s="19"/>
+      <c r="F64" s="13">
         <v>143</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G64" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="14">
         <v>83</v>
       </c>
-      <c r="I64" s="20"/>
+      <c r="I64" s="19"/>
     </row>
     <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="14">
+      <c r="A65" s="13">
         <v>104</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="14">
         <v>83</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="F65" s="14">
+      <c r="D65" s="19"/>
+      <c r="F65" s="13">
         <v>144</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G65" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H65" s="14">
         <v>84</v>
       </c>
-      <c r="I65" s="20"/>
+      <c r="I65" s="19"/>
     </row>
     <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="14">
+      <c r="A66" s="13">
         <v>105</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="14">
         <v>83</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="F66" s="14">
+      <c r="D66" s="19"/>
+      <c r="F66" s="13">
         <v>145</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="G66" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H66" s="14">
         <v>82</v>
       </c>
-      <c r="I66" s="20"/>
+      <c r="I66" s="19"/>
     </row>
     <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="14">
+      <c r="A67" s="13">
         <v>106</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="14">
         <v>82</v>
       </c>
-      <c r="D67" s="20"/>
-      <c r="F67" s="14">
+      <c r="D67" s="19"/>
+      <c r="F67" s="13">
         <v>146</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="G67" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H67" s="14">
         <v>71</v>
       </c>
-      <c r="I67" s="20"/>
+      <c r="I67" s="19"/>
     </row>
     <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14">
+      <c r="A68" s="13">
         <v>107</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="14">
         <v>81</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="F68" s="14">
+      <c r="D68" s="19"/>
+      <c r="F68" s="13">
         <v>147</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="G68" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="14">
         <v>72</v>
       </c>
-      <c r="I68" s="20"/>
+      <c r="I68" s="19"/>
     </row>
     <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14">
+      <c r="A69" s="13">
         <v>108</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="14">
         <v>74</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="F69" s="14">
+      <c r="D69" s="19"/>
+      <c r="F69" s="13">
         <v>148</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G69" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H69" s="14">
         <v>73</v>
       </c>
-      <c r="I69" s="20"/>
+      <c r="I69" s="19"/>
     </row>
     <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="14">
+      <c r="A70" s="13">
         <v>109</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="14">
         <v>84</v>
       </c>
-      <c r="D70" s="20"/>
-      <c r="F70" s="14">
+      <c r="D70" s="19"/>
+      <c r="F70" s="13">
         <v>149</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H70" s="14">
         <v>74</v>
       </c>
-      <c r="I70" s="20"/>
+      <c r="I70" s="19"/>
     </row>
     <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="14">
+      <c r="A71" s="13">
         <v>110</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="14">
         <v>81</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="F71" s="14">
+      <c r="D71" s="19"/>
+      <c r="F71" s="13">
         <v>150</v>
       </c>
-      <c r="G71" s="16" t="s">
+      <c r="G71" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="14">
         <v>82</v>
       </c>
-      <c r="I71" s="20"/>
+      <c r="I71" s="19"/>
     </row>
     <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="14">
+      <c r="A72" s="13">
         <v>111</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="14">
         <v>71</v>
       </c>
-      <c r="D72" s="20"/>
-      <c r="F72" s="14">
+      <c r="D72" s="19"/>
+      <c r="F72" s="13">
         <v>151</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="G72" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H72" s="14">
         <v>71</v>
       </c>
-      <c r="I72" s="20"/>
+      <c r="I72" s="19"/>
     </row>
     <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="14">
+      <c r="A73" s="13">
         <v>112</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="14">
         <v>71</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="F73" s="14">
+      <c r="D73" s="19"/>
+      <c r="F73" s="13">
         <v>152</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="14">
         <v>83</v>
       </c>
-      <c r="I73" s="20"/>
+      <c r="I73" s="19"/>
     </row>
     <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="14">
+      <c r="A74" s="13">
         <v>113</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="14">
         <v>71</v>
       </c>
-      <c r="D74" s="20"/>
-      <c r="F74" s="14">
+      <c r="D74" s="19"/>
+      <c r="F74" s="13">
         <v>153</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="14">
         <v>81</v>
       </c>
-      <c r="I74" s="20"/>
+      <c r="I74" s="19"/>
     </row>
     <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="14">
+      <c r="A75" s="13">
         <v>114</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="14">
         <v>81</v>
       </c>
-      <c r="D75" s="20"/>
-      <c r="F75" s="14">
+      <c r="D75" s="19"/>
+      <c r="F75" s="13">
         <v>154</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H75" s="14">
         <v>82</v>
       </c>
-      <c r="I75" s="20"/>
+      <c r="I75" s="19"/>
     </row>
     <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14">
+      <c r="A76" s="13">
         <v>115</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="14">
         <v>82</v>
       </c>
-      <c r="D76" s="20"/>
-      <c r="F76" s="14">
+      <c r="D76" s="19"/>
+      <c r="F76" s="13">
         <v>155</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="G76" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H76" s="14">
         <v>84</v>
       </c>
-      <c r="I76" s="20"/>
+      <c r="I76" s="19"/>
     </row>
     <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="14">
+      <c r="A77" s="13">
         <v>116</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="14">
         <v>73</v>
       </c>
-      <c r="D77" s="20"/>
-      <c r="F77" s="14">
+      <c r="D77" s="19"/>
+      <c r="F77" s="13">
         <v>156</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G77" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="14">
         <v>82</v>
       </c>
-      <c r="I77" s="20"/>
+      <c r="I77" s="19"/>
     </row>
     <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="14">
+      <c r="A78" s="13">
         <v>117</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="14">
         <v>72</v>
       </c>
-      <c r="D78" s="20"/>
-      <c r="F78" s="14">
+      <c r="D78" s="19"/>
+      <c r="F78" s="13">
         <v>157</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="G78" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H78" s="14">
         <v>81</v>
       </c>
-      <c r="I78" s="20"/>
+      <c r="I78" s="19"/>
     </row>
     <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="14">
+      <c r="A79" s="13">
         <v>118</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="14">
         <v>72</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="F79" s="14">
+      <c r="D79" s="19"/>
+      <c r="F79" s="13">
         <v>158</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="G79" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H79" s="15">
+      <c r="H79" s="14">
         <v>72</v>
       </c>
-      <c r="I79" s="20"/>
+      <c r="I79" s="19"/>
     </row>
     <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="14">
+      <c r="A80" s="13">
         <v>119</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="14">
         <v>83</v>
       </c>
-      <c r="D80" s="20"/>
-      <c r="F80" s="14">
+      <c r="D80" s="19"/>
+      <c r="F80" s="13">
         <v>159</v>
       </c>
-      <c r="G80" s="16" t="s">
+      <c r="G80" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H80" s="14">
         <v>71</v>
       </c>
-      <c r="I80" s="20"/>
+      <c r="I80" s="19"/>
     </row>
     <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="14">
+      <c r="A81" s="13">
         <v>120</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="14">
         <v>74</v>
       </c>
-      <c r="D81" s="20"/>
-      <c r="F81" s="14">
+      <c r="D81" s="19"/>
+      <c r="F81" s="13">
         <v>160</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="G81" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H81" s="14">
         <v>72</v>
       </c>
-      <c r="I81" s="20"/>
+      <c r="I81" s="19"/>
     </row>
     <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="14">
+      <c r="A82" s="13">
         <v>161</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="14">
         <v>83</v>
       </c>
-      <c r="D82" s="20"/>
-      <c r="F82" s="14">
+      <c r="D82" s="19"/>
+      <c r="F82" s="13">
         <v>201</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="G82" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H82" s="15">
+      <c r="H82" s="14">
         <v>73</v>
       </c>
-      <c r="I82" s="20"/>
+      <c r="I82" s="19"/>
     </row>
     <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="14">
+      <c r="A83" s="13">
         <v>162</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="14">
         <v>81</v>
       </c>
-      <c r="D83" s="20"/>
-      <c r="F83" s="14">
+      <c r="D83" s="19"/>
+      <c r="F83" s="13">
         <v>202</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H83" s="15">
+      <c r="H83" s="14">
         <v>73</v>
       </c>
-      <c r="I83" s="20"/>
+      <c r="I83" s="19"/>
     </row>
     <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="14">
+      <c r="A84" s="13">
         <v>163</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="14">
         <v>73</v>
       </c>
-      <c r="D84" s="20"/>
-      <c r="F84" s="14">
+      <c r="D84" s="19"/>
+      <c r="F84" s="13">
         <v>203</v>
       </c>
-      <c r="G84" s="16" t="s">
+      <c r="G84" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="H84" s="15">
+      <c r="H84" s="14">
         <v>74</v>
       </c>
-      <c r="I84" s="20"/>
+      <c r="I84" s="19"/>
     </row>
     <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="14">
+      <c r="A85" s="13">
         <v>164</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="14">
         <v>82</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="F85" s="14">
+      <c r="D85" s="19"/>
+      <c r="F85" s="13">
         <v>204</v>
       </c>
-      <c r="G85" s="16" t="s">
+      <c r="G85" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H85" s="15">
+      <c r="H85" s="14">
         <v>71</v>
       </c>
-      <c r="I85" s="20"/>
+      <c r="I85" s="19"/>
     </row>
     <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="14">
+      <c r="A86" s="13">
         <v>165</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="14">
         <v>74</v>
       </c>
-      <c r="D86" s="20"/>
-      <c r="F86" s="14">
+      <c r="D86" s="19"/>
+      <c r="F86" s="13">
         <v>205</v>
       </c>
-      <c r="G86" s="16" t="s">
+      <c r="G86" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H86" s="14">
         <v>72</v>
       </c>
-      <c r="I86" s="20"/>
+      <c r="I86" s="19"/>
     </row>
     <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="14">
+      <c r="A87" s="13">
         <v>166</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C87" s="14">
         <v>84</v>
       </c>
-      <c r="D87" s="20"/>
-      <c r="F87" s="14">
+      <c r="D87" s="19"/>
+      <c r="F87" s="13">
         <v>206</v>
       </c>
-      <c r="G87" s="16" t="s">
+      <c r="G87" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H87" s="15">
+      <c r="H87" s="14">
         <v>83</v>
       </c>
-      <c r="I87" s="20"/>
+      <c r="I87" s="19"/>
     </row>
     <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="14">
+      <c r="A88" s="13">
         <v>167</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="14">
         <v>82</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="F88" s="14">
+      <c r="D88" s="19"/>
+      <c r="F88" s="13">
         <v>207</v>
       </c>
-      <c r="G88" s="16" t="s">
+      <c r="G88" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H88" s="14">
         <v>81</v>
       </c>
-      <c r="I88" s="20"/>
+      <c r="I88" s="19"/>
     </row>
     <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="14">
+      <c r="A89" s="13">
         <v>168</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="14">
         <v>72</v>
       </c>
-      <c r="D89" s="20"/>
-      <c r="F89" s="14">
+      <c r="D89" s="19"/>
+      <c r="F89" s="13">
         <v>208</v>
       </c>
-      <c r="G89" s="16" t="s">
+      <c r="G89" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="H89" s="15">
+      <c r="H89" s="14">
         <v>73</v>
       </c>
-      <c r="I89" s="20"/>
+      <c r="I89" s="19"/>
     </row>
     <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="14">
+      <c r="A90" s="13">
         <v>169</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="14">
         <v>73</v>
       </c>
-      <c r="D90" s="20"/>
-      <c r="F90" s="14">
+      <c r="D90" s="19"/>
+      <c r="F90" s="13">
         <v>209</v>
       </c>
-      <c r="G90" s="16" t="s">
+      <c r="G90" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H90" s="15">
+      <c r="H90" s="14">
         <v>74</v>
       </c>
-      <c r="I90" s="20"/>
+      <c r="I90" s="19"/>
     </row>
     <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="14">
+      <c r="A91" s="13">
         <v>170</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91" s="14">
         <v>71</v>
       </c>
-      <c r="D91" s="20"/>
-      <c r="F91" s="14">
+      <c r="D91" s="19"/>
+      <c r="F91" s="13">
         <v>210</v>
       </c>
-      <c r="G91" s="16" t="s">
+      <c r="G91" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="H91" s="15">
+      <c r="H91" s="14">
         <v>83</v>
       </c>
-      <c r="I91" s="20"/>
+      <c r="I91" s="19"/>
     </row>
     <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="14">
+      <c r="A92" s="13">
         <v>171</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="14">
         <v>82</v>
       </c>
-      <c r="D92" s="20"/>
-      <c r="F92" s="14">
+      <c r="D92" s="19"/>
+      <c r="F92" s="13">
         <v>211</v>
       </c>
-      <c r="G92" s="16" t="s">
+      <c r="G92" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="H92" s="15">
+      <c r="H92" s="14">
         <v>74</v>
       </c>
-      <c r="I92" s="20"/>
+      <c r="I92" s="19"/>
     </row>
     <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="14">
+      <c r="A93" s="13">
         <v>172</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C93" s="15">
+      <c r="C93" s="14">
         <v>74</v>
       </c>
-      <c r="D93" s="20"/>
-      <c r="F93" s="14">
+      <c r="D93" s="19"/>
+      <c r="F93" s="13">
         <v>212</v>
       </c>
-      <c r="G93" s="16" t="s">
+      <c r="G93" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="H93" s="15">
+      <c r="H93" s="14">
         <v>83</v>
       </c>
-      <c r="I93" s="20"/>
+      <c r="I93" s="19"/>
     </row>
     <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="14">
+      <c r="A94" s="13">
         <v>173</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C94" s="15">
+      <c r="C94" s="14">
         <v>73</v>
       </c>
-      <c r="D94" s="20"/>
-      <c r="F94" s="14">
+      <c r="D94" s="19"/>
+      <c r="F94" s="13">
         <v>213</v>
       </c>
-      <c r="G94" s="16" t="s">
+      <c r="G94" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H94" s="15">
+      <c r="H94" s="14">
         <v>73</v>
       </c>
-      <c r="I94" s="20"/>
+      <c r="I94" s="19"/>
     </row>
     <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="14">
+      <c r="A95" s="13">
         <v>174</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C95" s="15">
+      <c r="C95" s="14">
         <v>84</v>
       </c>
-      <c r="D95" s="20"/>
-      <c r="F95" s="14">
+      <c r="D95" s="19"/>
+      <c r="F95" s="13">
         <v>214</v>
       </c>
-      <c r="G95" s="16" t="s">
+      <c r="G95" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="H95" s="15">
+      <c r="H95" s="14">
         <v>84</v>
       </c>
-      <c r="I95" s="20"/>
+      <c r="I95" s="19"/>
     </row>
     <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="14">
+      <c r="A96" s="13">
         <v>175</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C96" s="14">
         <v>83</v>
       </c>
-      <c r="D96" s="20"/>
-      <c r="F96" s="14">
+      <c r="D96" s="19"/>
+      <c r="F96" s="13">
         <v>215</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="G96" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H96" s="15">
+      <c r="H96" s="14">
         <v>72</v>
       </c>
-      <c r="I96" s="20"/>
+      <c r="I96" s="19"/>
     </row>
     <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="14">
+      <c r="A97" s="13">
         <v>176</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="14">
         <v>74</v>
       </c>
-      <c r="D97" s="20"/>
-      <c r="F97" s="14">
+      <c r="D97" s="19"/>
+      <c r="F97" s="13">
         <v>216</v>
       </c>
-      <c r="G97" s="16" t="s">
+      <c r="G97" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H97" s="15">
+      <c r="H97" s="14">
         <v>73</v>
       </c>
-      <c r="I97" s="20"/>
+      <c r="I97" s="19"/>
     </row>
     <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="14">
+      <c r="A98" s="13">
         <v>177</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="14">
         <v>72</v>
       </c>
-      <c r="D98" s="20"/>
-      <c r="F98" s="14">
+      <c r="D98" s="19"/>
+      <c r="F98" s="13">
         <v>217</v>
       </c>
-      <c r="G98" s="16" t="s">
+      <c r="G98" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="H98" s="15">
+      <c r="H98" s="14">
         <v>74</v>
       </c>
-      <c r="I98" s="20"/>
+      <c r="I98" s="19"/>
     </row>
     <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="14">
+      <c r="A99" s="13">
         <v>178</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C99" s="14">
         <v>71</v>
       </c>
-      <c r="D99" s="20"/>
-      <c r="F99" s="14">
+      <c r="D99" s="19"/>
+      <c r="F99" s="13">
         <v>218</v>
       </c>
-      <c r="G99" s="16" t="s">
+      <c r="G99" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H99" s="15">
+      <c r="H99" s="14">
         <v>71</v>
       </c>
-      <c r="I99" s="20"/>
+      <c r="I99" s="19"/>
     </row>
     <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="14">
+      <c r="A100" s="13">
         <v>179</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C100" s="15">
+      <c r="C100" s="14">
         <v>72</v>
       </c>
-      <c r="D100" s="20"/>
+      <c r="D100" s="19"/>
     </row>
     <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="14">
+      <c r="A101" s="13">
         <v>180</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C101" s="15">
+      <c r="C101" s="14">
         <v>73</v>
       </c>
-      <c r="D101" s="20"/>
+      <c r="D101" s="19"/>
     </row>
     <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="14">
+      <c r="A102" s="13">
         <v>181</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C102" s="14">
         <v>83</v>
       </c>
-      <c r="D102" s="20"/>
+      <c r="D102" s="19"/>
     </row>
     <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="14">
+      <c r="A103" s="13">
         <v>182</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="15">
+      <c r="C103" s="14">
         <v>73</v>
       </c>
-      <c r="D103" s="20"/>
+      <c r="D103" s="19"/>
     </row>
     <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="14">
+      <c r="A104" s="13">
         <v>183</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C104" s="15">
+      <c r="C104" s="14">
         <v>82</v>
       </c>
-      <c r="D104" s="20"/>
+      <c r="D104" s="19"/>
     </row>
     <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="14">
+      <c r="A105" s="13">
         <v>184</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C105" s="15">
+      <c r="C105" s="14">
         <v>84</v>
       </c>
-      <c r="D105" s="20"/>
+      <c r="D105" s="19"/>
     </row>
     <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="14">
+      <c r="A106" s="13">
         <v>185</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C106" s="15">
+      <c r="C106" s="14">
         <v>74</v>
       </c>
-      <c r="D106" s="20"/>
+      <c r="D106" s="19"/>
     </row>
     <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="14">
+      <c r="A107" s="13">
         <v>186</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C107" s="15">
+      <c r="C107" s="14">
         <v>74</v>
       </c>
-      <c r="D107" s="20"/>
+      <c r="D107" s="19"/>
     </row>
     <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="14">
+      <c r="A108" s="13">
         <v>187</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C108" s="15">
+      <c r="C108" s="14">
         <v>71</v>
       </c>
-      <c r="D108" s="20"/>
+      <c r="D108" s="19"/>
     </row>
     <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="14">
+      <c r="A109" s="13">
         <v>188</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C109" s="15">
+      <c r="C109" s="14">
         <v>72</v>
       </c>
-      <c r="D109" s="20"/>
+      <c r="D109" s="19"/>
     </row>
     <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="14">
+      <c r="A110" s="13">
         <v>189</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C110" s="15">
+      <c r="C110" s="14">
         <v>81</v>
       </c>
-      <c r="D110" s="20"/>
+      <c r="D110" s="19"/>
     </row>
     <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="14">
+      <c r="A111" s="13">
         <v>190</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C111" s="15">
+      <c r="C111" s="14">
         <v>83</v>
       </c>
-      <c r="D111" s="20"/>
+      <c r="D111" s="19"/>
     </row>
     <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="14">
+      <c r="A112" s="13">
         <v>191</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C112" s="15">
+      <c r="C112" s="14">
         <v>82</v>
       </c>
-      <c r="D112" s="20"/>
+      <c r="D112" s="19"/>
     </row>
     <row r="113" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="14">
+      <c r="A113" s="13">
         <v>192</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="15">
+      <c r="C113" s="14">
         <v>73</v>
       </c>
-      <c r="D113" s="20"/>
+      <c r="D113" s="19"/>
     </row>
     <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="14">
+      <c r="A114" s="13">
         <v>193</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C114" s="15">
+      <c r="C114" s="14">
         <v>74</v>
       </c>
-      <c r="D114" s="20"/>
+      <c r="D114" s="19"/>
     </row>
     <row r="115" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="14">
+      <c r="A115" s="13">
         <v>194</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C115" s="15">
+      <c r="C115" s="14">
         <v>71</v>
       </c>
-      <c r="D115" s="20"/>
+      <c r="D115" s="19"/>
     </row>
     <row r="116" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="14">
+      <c r="A116" s="13">
         <v>195</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C116" s="15">
+      <c r="C116" s="14">
         <v>72</v>
       </c>
-      <c r="D116" s="20"/>
+      <c r="D116" s="19"/>
     </row>
     <row r="117" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="14">
+      <c r="A117" s="13">
         <v>196</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C117" s="15">
+      <c r="C117" s="14">
         <v>72</v>
       </c>
-      <c r="D117" s="20"/>
+      <c r="D117" s="19"/>
     </row>
     <row r="118" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="14">
+      <c r="A118" s="13">
         <v>197</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C118" s="15">
+      <c r="C118" s="14">
         <v>84</v>
       </c>
-      <c r="D118" s="20"/>
+      <c r="D118" s="19"/>
     </row>
     <row r="119" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="14">
+      <c r="A119" s="13">
         <v>198</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C119" s="15">
+      <c r="C119" s="14">
         <v>84</v>
       </c>
-      <c r="D119" s="20"/>
+      <c r="D119" s="19"/>
     </row>
     <row r="120" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="14">
+      <c r="A120" s="13">
         <v>199</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C120" s="15">
+      <c r="C120" s="14">
         <v>81</v>
       </c>
-      <c r="D120" s="20"/>
+      <c r="D120" s="19"/>
     </row>
     <row r="121" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="14">
+      <c r="A121" s="13">
         <v>200</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C121" s="15">
+      <c r="C121" s="14">
         <v>83</v>
       </c>
-      <c r="D121" s="20"/>
+      <c r="D121" s="19"/>
     </row>
     <row r="122" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="13"/>
+      <c r="B122" s="12"/>
     </row>
     <row r="123" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="13"/>
+      <c r="B123" s="12"/>
     </row>
     <row r="124" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="13"/>
+      <c r="B124" s="12"/>
     </row>
     <row r="125" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="13"/>
+      <c r="B125" s="12"/>
     </row>
     <row r="126" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="13"/>
+      <c r="B126" s="12"/>
     </row>
     <row r="127" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="13"/>
+      <c r="B127" s="12"/>
     </row>
     <row r="128" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="13"/>
+      <c r="B128" s="12"/>
     </row>
     <row r="129" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="13"/>
+      <c r="B129" s="12"/>
     </row>
     <row r="130" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="13"/>
+      <c r="B130" s="12"/>
     </row>
     <row r="131" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="13"/>
+      <c r="B131" s="12"/>
     </row>
     <row r="132" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="13"/>
+      <c r="B132" s="12"/>
     </row>
     <row r="133" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="13"/>
+      <c r="B133" s="12"/>
     </row>
     <row r="134" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="13"/>
+      <c r="B134" s="12"/>
     </row>
     <row r="135" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="13"/>
+      <c r="B135" s="12"/>
     </row>
     <row r="136" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="13"/>
+      <c r="B136" s="12"/>
     </row>
     <row r="137" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="13"/>
+      <c r="B137" s="12"/>
     </row>
     <row r="138" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="13"/>
+      <c r="B138" s="12"/>
     </row>
     <row r="139" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="13"/>
+      <c r="B139" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C139">
